--- a/Figures/Projections/Forecasts_SUICF_Region.xlsx
+++ b/Figures/Projections/Forecasts_SUICF_Region.xlsx
@@ -7,6 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Americas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Continent" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Southern Cone" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Non Latin Caribbean" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Central America" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Andean Area" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Brazil" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Latin Caribbean" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Mexico" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="North America" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
@@ -764,10 +773,10 @@
         <v>4.11978909119448</v>
       </c>
       <c r="E22" t="n">
-        <v>4.06322960376731</v>
+        <v>4.06649348257867</v>
       </c>
       <c r="F22" t="n">
-        <v>4.18743483968636</v>
+        <v>4.18104371955182</v>
       </c>
     </row>
     <row r="23">
@@ -780,10 +789,10 @@
         <v>4.16408550787553</v>
       </c>
       <c r="E23" t="n">
-        <v>4.10608554879538</v>
+        <v>4.10601392309811</v>
       </c>
       <c r="F23" t="n">
-        <v>4.23283572080499</v>
+        <v>4.23060521008596</v>
       </c>
     </row>
     <row r="24">
@@ -796,10 +805,10 @@
         <v>4.21241363998305</v>
       </c>
       <c r="E24" t="n">
-        <v>4.15435828445164</v>
+        <v>4.157017335441</v>
       </c>
       <c r="F24" t="n">
-        <v>4.28226342695038</v>
+        <v>4.28008313262347</v>
       </c>
     </row>
     <row r="25">
@@ -812,10 +821,10 @@
         <v>4.26337213058321</v>
       </c>
       <c r="E25" t="n">
-        <v>4.20684999519276</v>
+        <v>4.20473081959539</v>
       </c>
       <c r="F25" t="n">
-        <v>4.3288255814398</v>
+        <v>4.3284773001542</v>
       </c>
     </row>
     <row r="26">
@@ -828,10 +837,10 @@
         <v>4.31584687553548</v>
       </c>
       <c r="E26" t="n">
-        <v>4.26089715055487</v>
+        <v>4.25356137769091</v>
       </c>
       <c r="F26" t="n">
-        <v>4.38084572127524</v>
+        <v>4.37770250208089</v>
       </c>
     </row>
     <row r="27">
@@ -844,10 +853,10 @@
         <v>4.36827702572382</v>
       </c>
       <c r="E27" t="n">
-        <v>4.30980330743391</v>
+        <v>4.30940225246926</v>
       </c>
       <c r="F27" t="n">
-        <v>4.43029514309688</v>
+        <v>4.42859688055646</v>
       </c>
     </row>
     <row r="28">
@@ -860,10 +869,10 @@
         <v>4.42032832087017</v>
       </c>
       <c r="E28" t="n">
-        <v>4.36218168896023</v>
+        <v>4.36310637585403</v>
       </c>
       <c r="F28" t="n">
-        <v>4.48477678513841</v>
+        <v>4.47878358510573</v>
       </c>
     </row>
     <row r="29">
@@ -876,10 +885,10 @@
         <v>4.47223673779608</v>
       </c>
       <c r="E29" t="n">
-        <v>4.41490479879664</v>
+        <v>4.41539173312934</v>
       </c>
       <c r="F29" t="n">
-        <v>4.53552980736356</v>
+        <v>4.52905716666415</v>
       </c>
     </row>
     <row r="30">
@@ -892,10 +901,10 @@
         <v>4.52418426541185</v>
       </c>
       <c r="E30" t="n">
-        <v>4.46190013600839</v>
+        <v>4.45794731848909</v>
       </c>
       <c r="F30" t="n">
-        <v>4.58469474303553</v>
+        <v>4.57921957739307</v>
       </c>
     </row>
     <row r="31">
@@ -908,10 +917,10 @@
         <v>4.57618516621698</v>
       </c>
       <c r="E31" t="n">
-        <v>4.51474100583276</v>
+        <v>4.51299701604521</v>
       </c>
       <c r="F31" t="n">
-        <v>4.636608991207</v>
+        <v>4.63409054517221</v>
       </c>
     </row>
     <row r="32">
@@ -924,10 +933,4420 @@
         <v>4.62820319892326</v>
       </c>
       <c r="E32" t="n">
-        <v>4.56879779094649</v>
+        <v>4.56944704537888</v>
       </c>
       <c r="F32" t="n">
-        <v>4.69170239716713</v>
+        <v>4.68454113703332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.0538796349369</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.07295181929464</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.16257785524824</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.20541193299535</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.37021862443597</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.35480645803392</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.43054466039331</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.47059791780333</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.75904785097994</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.59161802202713</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.64241000777491</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.69794027638443</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.71689510414761</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.77782435194059</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.90403159385825</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.86213747832566</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.97815170422983</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.96443416055869</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.02653034038008</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.07244293354812</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.20186682187747</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.21239112167797</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.34912092243221</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.31866821802915</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.41954780979614</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.446618541515</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.52633348442622</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.5788947554145</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.77234961708342</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.79082294953462</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.04093603458308</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.00487947743985</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6.18541412398011</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.15923346071729</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6.38998815655396</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.29917992589344</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6.43668955450407</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.4754512206082</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.6264185934174</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.63664747329725</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>6.8448480616427</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.68891913817549</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.07457569838981</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>7.04966234546084</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.91778276660068</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7.27307778933929</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>7.2534836137743</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.10262655415226</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7.49782128847722</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>7.45722729050164</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.29277355068956</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7.71271698901612</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>7.66106785031585</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.48666766094786</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.89597509414397</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>7.86497692406026</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.67494527510463</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8.12697376369149</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>8.06891413878063</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7.8696770867319</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8.33239019836421</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>8.27285975421644</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.07548601409271</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.53580730900714</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>8.47680736628463</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8.2444337797188</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.75930640944465</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>8.68075553704654</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8.44085745701112</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8.97631399425769</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>8.88470404077689</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8.63765600609304</v>
+      </c>
+      <c r="F32" t="n">
+        <v>9.17383247939055</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.91516939760286</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.93017625664123</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.06249635246387</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.08629193632868</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.18801651791943</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.14781721316083</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.16157649994452</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.18930801301962</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.2652898398768</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.22833697717598</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.22693957008137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.23833967832179</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.23034977073689</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.27106963212091</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.33759090424989</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.32419526231935</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.39834659296596</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.35399918488934</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.42777774398255</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.43050600099955</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.45273614357006</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.49671810078465</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.55569153916488</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.52597526277793</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.58045999166073</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.57002530638885</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.58215381209936</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.60763273079954</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.70408048417016</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.70603660991765</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.84633679733502</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.81076608393035</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.83134807459567</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.86402400632897</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.99652026582671</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.98712960371964</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.02828511957342</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.01619962126223</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.05252076191386</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.05913869884695</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>4.111414441016</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.05474627608154</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.18010275675433</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>4.1378581104992</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.06337892156615</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.21450528916733</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>4.162785500048</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.07768034746191</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.24212524787167</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>4.20560082182054</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.13666898448726</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.27542548541713</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>4.2595386622809</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.19432063657259</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.33599881436929</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>4.32190892606792</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.25301876965658</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.39240322859164</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>4.38504232674127</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.30827971617351</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.45133693090317</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>4.44417071957397</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.37071570334684</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.51330680492492</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>4.49877763322193</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.4227450655173</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.5637773207786</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>4.5534473755658</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.47928159111953</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4.61816662566482</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>4.61052119203427</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.53146327938847</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.67250339140465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.26954672198745</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.69520592393238</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.94290043704764</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.54504678521855</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.44789693546798</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.53039452778752</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.39642535319683</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.5602196965641</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.69028219687767</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.64810721931352</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.47448896434235</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.58077149387294</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.56884842008597</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.31641327951724</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.78096812113956</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.55667975239569</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.36104205009249</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.57365467063258</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.57566741516812</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.41936050014968</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.16486872425471</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.8328641665645</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.17589993795691</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.82171424565435</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.16323884572698</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.81603702743761</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.17334878274328</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.81635529071661</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.17589108930556</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.81026332847015</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.1640914256254</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.82558740517655</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.16378035033416</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.82276533645874</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.14693235081297</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.80564289608088</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.17105402357425</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.81361466450471</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.15740017801579</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.82942736106073</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>3.54669602323951</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.16643440544082</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.82756922831294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.54089383752365</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.41652625709622</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.7415095097065</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.41708528756778</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.34765982528479</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.34463953029868</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.51908399500905</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.34457970896949</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.33782260486091</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.34380492132794</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.22084513661682</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.29875126431699</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.20409826475247</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.29492721932932</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4.06192634148116</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.29320912650444</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.24787957867467</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.2945596912116</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.59333328313684</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.29050831894115</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.27804072030869</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.29307000693231</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.01793526561053</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.29497146362138</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4.3552403521713</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.29455962816076</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.37796235800968</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.29407685337148</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.98923432934782</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.29406013783525</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.26800138881557</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.29383717970595</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.28175104173879</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.29407309915822</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.24720727297672</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.29417056734716</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.31562510216904</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.29516205538839</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.33859032639595</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.29806821750644</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>4.29063795292392</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.97770072043091</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.5856812505474</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>4.28653485018283</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.97554759690273</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.59383577511845</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>4.28243147601633</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.96496921107865</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.58272068096737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>4.27558096028865</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.95931849169461</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.58294612987463</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>4.26879164025839</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.95651950645182</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.57807957665161</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>4.26276505692329</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.95191876049482</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.57563159159701</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>4.25664962441293</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.93021457700379</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.56962754257007</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>4.25034579799641</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.91741046134103</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.57631367872535</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>4.24408861590076</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.91462149490732</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.55705163006584</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>4.2378751852357</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.90432136792613</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4.54510811731537</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>4.23164383048503</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.89813922031398</v>
+      </c>
+      <c r="F32" t="n">
+        <v>4.55903073732804</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.88126610008938</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.92493680405476</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.98103397934703</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.96007650904806</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.9837423353042</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.94475944310387</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.99922025142157</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.94334364904311</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.89806456422547</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.83492458273343</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.75803636727539</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.80467258212351</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.60567488214585</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.63779515045683</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.50777844406792</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.52227124293778</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.50464807098817</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.51475906064836</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.48745180911627</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.44979426332126</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.26387176907177</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.3516454664923</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.33997662906346</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.27007667427156</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.18895078807148</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.20454146049332</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.07476492869295</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.15330717870311</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.1093708370473</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.11145598707258</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.07556534841185</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.03342341798484</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.00234069562847</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.03277043245819</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.99560113637793</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.92434975252196</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.97049998094406</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.95382690035446</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.88229714034976</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.93742549981698</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>1.9110949188365</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.77832369043692</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.00990774179969</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>1.86100653641477</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.73809314747384</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.95690042249175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>1.77679356668015</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.65018242289751</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.88433069581747</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>1.72337179011153</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.57370521671093</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.81551938929863</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>1.61785080157221</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.46877507981616</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.7332234092553</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>1.56393645205169</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.39029912825929</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.6794401087873</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>1.53534232327854</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.35617697931616</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.64174246196427</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>1.48379424906874</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.30878929781413</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.58963043573695</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>1.4136289325683</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.24818803688993</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.52319560353404</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>1.35344112777188</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.15252611625664</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.47245406884808</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>1.30713382142226</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.11494320110817</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.42099373078894</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.70557303679523</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.67191311794605</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.64360388526594</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.63738470007722</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.67232946813205</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.65071574159987</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.71267792203938</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.65561611628813</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.54566277377641</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.56024390944059</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.45066263623982</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.44707986413104</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.38467009629866</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.37222823753119</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.30160523381058</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.28691684351995</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.25760422143982</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.27407658875116</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.30745799783347</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.27410719492593</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.21829295996617</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.2083245752949</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.13191471132223</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.14898080858324</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.11230173303411</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.09569879990193</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.02434905302816</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.0563252588527</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.89771412980152</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.01011244432408</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.02093566325266</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.99820321568433</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.94680836336771</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.99360355837759</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.00041854120118</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.93574395302057</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.89032880005804</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.91834035082857</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.86333509599853</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.89263104358265</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>1.90697806074053</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.84608606175359</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.03434439543448</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>1.89803140763894</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.81854975373895</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.99787368622488</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>1.80446964863669</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.73746084608833</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.92682446924104</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>1.71377601171743</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.64502668763943</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.83833791791924</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>1.65265670949484</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.58310929929993</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.76530618514867</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>1.6152867539261</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.54369565638228</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.72064436252148</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>1.58115053062401</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.5097324094608</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.68994277839174</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>1.53582715389999</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.46777027289542</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.63719453688652</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>1.49201716237973</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.4252296658202</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.61621003487744</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>1.44871041960965</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.37895908844919</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.53808264642836</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>1.41195274730969</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.34016848529075</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.53747962593804</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.827853</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.23861524954453</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.016609</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.25820438257068</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.163905</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.28347605964837</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.024727</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.26299129939271</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.10408</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.28150181378142</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.180986</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.29408006027461</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.236488</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.25139087491699</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.293363</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.25732254675973</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.347283</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.32333901441625</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.318225</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.24596393346935</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.399491</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.36189214282708</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.430777</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.41796176686803</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.520495</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.42325890153367</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.490995</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.34328610012914</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.385925</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.24507159530113</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.569963</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.35085087117037</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.493195</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.46025945060832</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.755857</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.60996786878537</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.885016</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.61538816218282</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.757634</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.67804490581943</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>2.73698335980813</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.47227552851922</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.12016186094063</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>2.75959893381163</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2.4945651425761</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.15640595486647</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>2.78871691079808</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.52322004276047</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.19701484193008</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>2.81409030159546</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.56113391323353</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.18641044101475</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>2.8421216628575</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.56588800082444</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.22164769049141</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>2.86915022350396</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.58581968083808</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.26170717004928</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>2.89676261199241</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.60369146940704</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.27394053455457</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>2.92408298362082</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.64144672748828</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.30491687614857</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>2.95154639690045</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.65634620608035</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.34165503433939</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>2.97893526866067</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.69637939751827</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.36129842448777</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>3.00636136714285</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.71127475855295</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.39589349122388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.33370102899331</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.74423464810223</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.70257813376169</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.56974448846753</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.61815008129631</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.39129946176035</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.09213268301502</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.31064046766062</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.96611048381825</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.18896476370437</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.02893001315418</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.92327917480785</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.42691504200941</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.67318556405554</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.44495881120389</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.60536872198175</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.65296216352448</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.64859399073429</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.78282174334369</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.62783602975626</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.76120607962742</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.54431941067435</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.44244673180413</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.41389269652176</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.21206296482568</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.31689515739187</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.19656253646241</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.26705933875488</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.23077184278029</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.32391375056491</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.17740742991753</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.29266909684138</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.94871281877645</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.1278515180202</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.99499422915685</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.98376517834915</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.75735261057407</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.8010959727571</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.65660937455336</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.67277737169202</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>4.53100131898773</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.99192013591701</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.78201368971804</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>4.41820122072957</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.89714469800528</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4.69322737726468</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>4.30071799412272</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.73782438182746</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.5863364866467</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>4.18782614082256</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.63966620421761</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.49508970581017</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>4.07160946102893</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.52337032322269</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.37309433130537</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>3.95925245892818</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.42739675726882</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.3126130041527</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>3.84768147086548</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.30950725380344</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4.19668347088411</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>3.73746305570357</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.16980560074844</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4.11509679300657</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>3.62762253717427</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.06047519487582</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.03770885024524</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>3.51800618563438</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.95508381049651</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.91626515182155</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>3.40859482286342</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.83643539756741</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.81573945195532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.124823</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.33597397386132</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.409827</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.3648294068872</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.344162</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.41944880847221</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.384625</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.44376906757907</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.359648</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.46590056231727</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.41421</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.48539988950643</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.335628</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.54804371388833</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.557593</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.62619268440761</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.706505</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.71244225109233</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.801782</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.77806913958831</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.65224</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.81604658827529</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.997508</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.88052579791581</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.921236</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.91768050504827</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.962638</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.95724237285618</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.253251</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.99627327318582</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.255288</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.01612579197852</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.079044</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.0400856832508</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.141033</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.06405926224733</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.17101</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.08600711537871</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.179345</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.0972801122632</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" t="n">
+        <v>2.1500324191492</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.90928016096431</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.36788114663913</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" t="n">
+        <v>2.18292237623997</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.93372831127768</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.40725234935986</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" t="n">
+        <v>2.21259564768319</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.94600968862325</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.43545458413323</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" t="n">
+        <v>2.2438141429191</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.96234113449352</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.47018380159941</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" t="n">
+        <v>2.28625601522682</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.00234984047974</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.51653399530453</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" t="n">
+        <v>2.33999176839478</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.07612694020505</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.57173227314056</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" t="n">
+        <v>2.39365747580219</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.14478927776092</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.63095668863797</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" t="n">
+        <v>2.43924093268151</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.15873984175359</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.67283164769731</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" t="n">
+        <v>2.47468154918723</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.20807369456567</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.71643305078758</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" t="n">
+        <v>2.50717468615709</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.22558548999003</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.74676701797454</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" t="n">
+        <v>2.54348708839919</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.26829409396435</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.78085118393584</v>
       </c>
     </row>
   </sheetData>
